--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urmz\Documents\jobtrain documentations\JTAutomation\JTAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA3BA9-F342-4DA6-905D-A1B13A6B51D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C53B78-91F3-4F3D-8189-B4831AD18AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6520" xr2:uid="{3DB4D656-0216-4F30-9A4D-1289AA82A709}"/>
   </bookViews>
@@ -33,25 +33,25 @@
     <t>Salary £:</t>
   </si>
   <si>
-    <t>Closing Date:</t>
+    <t>Hours Per Week:</t>
+  </si>
+  <si>
+    <t>Vacancy Start Date:</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Not Specified564</t>
+  </si>
+  <si>
+    <t>Closinsg Date:</t>
   </si>
   <si>
     <t>Division:</t>
-  </si>
-  <si>
-    <t>Hours Per Week:</t>
-  </si>
-  <si>
-    <t>Vacancy Start Date:</t>
-  </si>
-  <si>
-    <t>31/01/2025</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Not Specified564</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,31 +436,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
     </row>

--- a/jobdetail.xlsx
+++ b/jobdetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urmz\Documents\jobtrain documentations\JTAutomation\JTAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C53B78-91F3-4F3D-8189-B4831AD18AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51988D9-5F35-438C-8CB4-33F91C1645A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6520" xr2:uid="{3DB4D656-0216-4F30-9A4D-1289AA82A709}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Agency</t>
   </si>
   <si>
-    <t>Not Specified564</t>
-  </si>
-  <si>
     <t>Closinsg Date:</t>
   </si>
   <si>
     <t>Division:</t>
+  </si>
+  <si>
+    <t>Not Specified</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,7 +436,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
